--- a/data/long_bre/P18_3-Edad-long_bre.xlsx
+++ b/data/long_bre/P18_3-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,78%</t>
+          <t>-15,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>42,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-36,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-34,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-45,0%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 17,95</t>
+          <t>-3,18; 19,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 5,66</t>
+          <t>-13,78; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 16,91</t>
+          <t>-7,2; 17,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 170,13</t>
+          <t>-23,23; 3,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 73,13</t>
+          <t>-38,81; 1,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 156,65</t>
+          <t>-17,95; 163,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-71,71; 77,97</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-27,89; 133,7</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-67,24; 30,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-77,0; 13,83</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,16</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>-7,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,23%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 5,14</t>
+          <t>-17,5; 7,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 10,16</t>
+          <t>-16,05; 14,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 8,85</t>
+          <t>-16,12; 12,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 7,66</t>
+          <t>-9,1; 25,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 17,05</t>
+          <t>-8,2; 34,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 13,85</t>
+          <t>-23,17; 11,37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-22,09; 27,26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; 21,94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 57,57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,65; 101,44</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>-14,19%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22,61%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-27,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 7,57</t>
+          <t>-9,87; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 18,6</t>
+          <t>-8,72; 19,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 5,14</t>
+          <t>-14,6; 4,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 105,49</t>
+          <t>-14,43; 13,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 141,42</t>
+          <t>-13,89; 18,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 57,32</t>
+          <t>-58,73; 78,82</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-29,43; 130,64</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-66,47; 63,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-51,64; 119,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-54,77; 201,84</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 10,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 12,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 6,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 158,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 480,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,29; 50,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>32,49%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-23,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>119,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>137,58%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 5,15</t>
+          <t>-5,04; 10,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 21,21</t>
+          <t>-2,89; 11,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 12,16</t>
+          <t>-23,09; 5,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 6,41</t>
+          <t>0,09; 15,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 34,51</t>
+          <t>-0,72; 23,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 19,88</t>
+          <t>-38,47; 171,3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-34,38; 354,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-64,75; 37,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 548,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 686,29</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,43%</t>
+          <t>-22,75</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>-6,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18,29%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-29,91%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,05</t>
+          <t>-15,96; 3,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 3,13</t>
+          <t>-8,9; 23,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 13,89</t>
+          <t>-13,47; 14,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 225,01</t>
+          <t>-5,11; 33,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,98; 27,29</t>
+          <t>-40,27; -1,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 291,14</t>
+          <t>-18,39; 4,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; 43,26</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,37; 24,71</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 87,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-47,68; -4,83</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>-17,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-44,46%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92,17%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-48,02%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>68,59%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 9,43</t>
+          <t>-3,78; 8,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 7,58</t>
+          <t>-28,28; 3,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 4,1</t>
+          <t>0,78; 14,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 149,55</t>
+          <t>-44,53; -1,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-37,05; 84,79</t>
+          <t>-11,61; 22,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 45,15</t>
+          <t>-37,5; 202,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-76,76; 30,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 313,25</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-77,25; -6,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-47,57; 353,08</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 21,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 4,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 6,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 35,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 6,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 8,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,22</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-14,69%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>68,28%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>49,78%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -0,18</t>
+          <t>-10,7; 9,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 10,02</t>
+          <t>-5,28; 7,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 11,83</t>
+          <t>-10,38; 4,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-78,76; -0,25</t>
+          <t>-0,55; 14,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 133,56</t>
+          <t>-3,98; 15,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 121,73</t>
+          <t>-52,58; 125,4</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-33,31; 89,58</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-53,44; 45,69</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 185,85</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-26,88; 212,13</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>-12,17</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-12,79</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-16,15%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-18,13%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,06; 11,87</t>
+          <t>-8,08; 13,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 6,59</t>
+          <t>-14,39; 3,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 9,44</t>
+          <t>-11,48; 5,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 178,23</t>
+          <t>-21,61; -2,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,57; 108,34</t>
+          <t>-25,64; 1,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 97,94</t>
+          <t>-9,7; 21,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 5,53</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,7; 8,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-27,03; -3,84</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-33,67; 2,25</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-11,79%</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-19,82%</t>
+          <t>-23,58%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>30,3%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>32,99%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-17,7; -2,64</t>
+          <t>-10,9; 2,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 7,64</t>
+          <t>-2,74; 9,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -7,34</t>
+          <t>-1,82; 11,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -3,51</t>
+          <t>-2,94; 11,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 11,76</t>
+          <t>-4,88; 18,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,75; -10,43</t>
+          <t>-64,03; 38,04</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; 134,33</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-11,32; 126,15</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-18,13; 127,34</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-20,99; 164,36</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>113,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 12,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5,36; 17,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 190,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 90,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>36,0; 239,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>10,17</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>200,11%</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>111,04%</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>59,26%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>131,26%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-5,56%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,36; 19,32</t>
+          <t>-0,23; 12,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,61; 14,85</t>
+          <t>-10,6; 6,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 11,64</t>
+          <t>-1,96; 10,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>41,32; 609,37</t>
+          <t>4,21; 17,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,58; 330,1</t>
+          <t>-10,65; 9,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 206,24</t>
+          <t>-3,83; 179,53</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-60,75; 110,78</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 105,89</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>35,64; 325,76</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-48,42; 86,73</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-12,23</t>
+          <t>-10,06</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,33</t>
+          <t>-15,27</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-14,63%</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-12,43%</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-19,42%</t>
+          <t>-12,14%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-6,19%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-19,86%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-16,05%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,95; -2,25</t>
+          <t>-17,77; -2,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 1,66</t>
+          <t>-13,08; 7,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -8,45</t>
+          <t>-22,45; -7,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -2,81</t>
+          <t>-22,1; -3,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 2,16</t>
+          <t>-12,87; 15,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-28,97; -10,56</t>
+          <t>-20,44; -2,69</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-16,82; 11,26</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-28,08; -10,49</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-27,63; -5,06</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-18,24; 27,56</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>140,17%</t>
+          <t>58,24%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>27,53%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>110,8%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 9,37</t>
+          <t>-1,56; 9,63</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 10,26</t>
+          <t>-4,37; 12,17</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>4,81; 18,2</t>
+          <t>5,53; 17,44</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 136,65</t>
+          <t>-5,28; 10,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-51,38; 120,02</t>
+          <t>-11,98; 10,17</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>38,59; 318,02</t>
+          <t>-18,14; 188,31</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 91,08</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>37,72; 226,22</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-24,24; 85,64</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-43,94; 78,48</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 12,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 10,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 425,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 150,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 112,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-14,98</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-8,97</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-11,6%</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>183,07%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>112,0%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>58,18%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>109,49%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>-41,06%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-25,46; -5,29</t>
+          <t>3,56; 15,85</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 5,6</t>
+          <t>1,09; 14,82</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 11,83</t>
+          <t>-1,26; 10,67</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -6,71</t>
+          <t>2,11; 18,63</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 8,29</t>
+          <t>-15,96; 2,51</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 19,24</t>
+          <t>24,48; 502,58</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 339,43</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-13,62; 199,57</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 336,54</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-77,62; 34,74</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>-12,37</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-16,23</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>109,79%</t>
+          <t>-13,29</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-7,24%</t>
+          <t>-14,79%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-11,88%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-19,4%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-17,38%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>1,37; 17,87</t>
+          <t>-21,25; -2,62</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0,79; 20,85</t>
+          <t>-20,0; 2,22</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 7,45</t>
+          <t>-25,06; -8,35</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>6,25; 337,83</t>
+          <t>-24,8; -2,09</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,25; 262,29</t>
+          <t>-6,85; 21,89</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-50,69; 70,55</t>
+          <t>-24,42; -3,31</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-23,64; 3,26</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-28,8; -10,09</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-31,58; -3,09</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 42,22</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>139,93%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>-6,46%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,5</t>
+          <t>-5,42; 9,41</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,87</t>
+          <t>-10,89; 9,22</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,82</t>
+          <t>5,1; 18,51</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>17,3; 108,99</t>
+          <t>-5,83; 12,92</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 63,43</t>
+          <t>-13,72; 12,5</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 38,52</t>
+          <t>-35,79; 119,47</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-53,28; 105,35</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>45,27; 329,3</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-29,44; 128,24</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-42,36; 74,45</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-9,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -1,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -1,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -3,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>94,45%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>280,53%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>82,96%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,81</t>
+          <t>-0,34; 11,36</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 7,29</t>
+          <t>-11,17; 7,63</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,4</t>
+          <t>-5,39; 10,49</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 53,31</t>
+          <t>4,11; 25,03</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 57,04</t>
+          <t>-4,21; 20,58</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>16,94; 83,65</t>
+          <t>-7,82; 349,61</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-62,8; 164,89</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-31,07; 129,38</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>13,1; 1449,88</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>-42,44; 580,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-12,53</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-10,45</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-14,25</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-17,5</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-14,76%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-13,37%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>-18,94%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-23,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-21,68; -2,86</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-23,07; 1,32</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-13,97; 9,33</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-29,07; 1,2</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-36,54; -1,46</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-24,61; -3,88</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-27,35; 1,38</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 14,57</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>-36,21; 1,13</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-45,64; -2,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>6,82</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>10,09</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>10,77</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>75,33%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>82,91%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>57,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 14,34</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 21,01</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 7,95</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-13,01; 14,56</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 27,67</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 258,29</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 246,23</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-48,47; 75,87</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 114,92</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>-25,34; 218,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>52,38%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>68,22%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 8,0</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 4,8</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 4,81</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 11,27</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 6,44</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 93,28</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-16,67; 57,58</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; 38,49</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>26,24; 131,14</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>-23,72; 51,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-7,22</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-6,66</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-5,99</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-5,98</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-9,01%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-9,04%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>-8,65%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; -3,23</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 2,51</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; -2,27</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; 1,16</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-13,8; 1,66</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-13,72; -4,25</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 3,47</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; -3,22</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 1,79</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-19,71; 2,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>15,54%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>47,14%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>-5,24%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 5,05</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 6,78</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 8,52</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 4,21</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 11,1</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 58,78</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; 49,32</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 86,33</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>-32,27; 25,13</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 68,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_3-Edad-long_bre.xlsx
+++ b/data/long_bre/P18_3-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1446,7 +1446,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1792,7 +1792,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1906,7 +1906,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2138,7 +2138,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2252,7 +2252,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2484,7 +2484,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2598,7 +2598,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2830,7 +2830,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2944,7 +2944,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
